--- a/db aziende/db aziende.xlsx
+++ b/db aziende/db aziende.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
   <si>
     <t>pIva</t>
   </si>
@@ -162,6 +162,231 @@
   </si>
   <si>
     <t>MEREGALLI</t>
+  </si>
+  <si>
+    <t>00121235013</t>
+  </si>
+  <si>
+    <t>REDAELLI RICAMBI SRL</t>
+  </si>
+  <si>
+    <t>0341266911</t>
+  </si>
+  <si>
+    <t>METALMECCANICO</t>
+  </si>
+  <si>
+    <t>API - LECCO</t>
+  </si>
+  <si>
+    <t>VIA PROVINCIALE PER DOLZAGO 59</t>
+  </si>
+  <si>
+    <t>OGGIONO</t>
+  </si>
+  <si>
+    <t>PIETRO</t>
+  </si>
+  <si>
+    <t>REDAELLI</t>
+  </si>
+  <si>
+    <t>RDLPTR40D19GOO9X</t>
+  </si>
+  <si>
+    <t>19/04/1940</t>
+  </si>
+  <si>
+    <t>RUGGERO</t>
+  </si>
+  <si>
+    <t>00664380136</t>
+  </si>
+  <si>
+    <t>ITA SPA</t>
+  </si>
+  <si>
+    <t>0341634742</t>
+  </si>
+  <si>
+    <t>TRAFILATI ACCIAI</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>PIAZZA MAZZINI 13</t>
+  </si>
+  <si>
+    <t>VIA LAGO VECCHIO 9/20</t>
+  </si>
+  <si>
+    <t>CALOLZIOCORTE</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>BERI</t>
+  </si>
+  <si>
+    <t>BRENDR75RI8E507R</t>
+  </si>
+  <si>
+    <t>18/10/1975</t>
+  </si>
+  <si>
+    <t>03131730131</t>
+  </si>
+  <si>
+    <t>STUDIO LEGALE AVV. GIUSEPPE RUSCONI &amp; PATNERS</t>
+  </si>
+  <si>
+    <t>0341284259</t>
+  </si>
+  <si>
+    <t>TERZIARIO STUDIO LEGALE</t>
+  </si>
+  <si>
+    <t>VIA BALICCO 61</t>
+  </si>
+  <si>
+    <t>GIUSEPPE</t>
+  </si>
+  <si>
+    <t>RUSCONI</t>
+  </si>
+  <si>
+    <t>RSCGPP59P15L634C</t>
+  </si>
+  <si>
+    <t>VALMADRERA</t>
+  </si>
+  <si>
+    <t>15/09/1959</t>
+  </si>
+  <si>
+    <t>02444660134</t>
+  </si>
+  <si>
+    <t>DOTT. FILIPPO RADAELLI</t>
+  </si>
+  <si>
+    <t>0341263104</t>
+  </si>
+  <si>
+    <t>STUDI PROFESSIONALI - COMMERCIALISTA</t>
+  </si>
+  <si>
+    <t>VIA KENNEDY 4</t>
+  </si>
+  <si>
+    <t>VIA BACHELET 13</t>
+  </si>
+  <si>
+    <t>FILIPPO</t>
+  </si>
+  <si>
+    <t>RADAELLI</t>
+  </si>
+  <si>
+    <t>RDLFPP71B14E507W</t>
+  </si>
+  <si>
+    <t>14/02/1971</t>
+  </si>
+  <si>
+    <t>02933230165</t>
+  </si>
+  <si>
+    <t>NAV SYSTEM SRL</t>
+  </si>
+  <si>
+    <t>0313355418</t>
+  </si>
+  <si>
+    <t>RIPARAZ MACCHINE PER UFFICIO INFO </t>
+  </si>
+  <si>
+    <t>VIA COMO 3 </t>
+  </si>
+  <si>
+    <t>LONGONE AL SEGRINO</t>
+  </si>
+  <si>
+    <t>VIA PLINIO 12/14</t>
+  </si>
+  <si>
+    <t>ERBA</t>
+  </si>
+  <si>
+    <t>ANGELO</t>
+  </si>
+  <si>
+    <t>NAVONI</t>
+  </si>
+  <si>
+    <t>NVNNGL60M08F205T</t>
+  </si>
+  <si>
+    <t>MILANO</t>
+  </si>
+  <si>
+    <t>08/08/1960</t>
+  </si>
+  <si>
+    <t>MIRCO</t>
+  </si>
+  <si>
+    <t>CALDERA</t>
+  </si>
+  <si>
+    <t>02220860130</t>
+  </si>
+  <si>
+    <t>EASYNET</t>
+  </si>
+  <si>
+    <t>0341256911</t>
+  </si>
+  <si>
+    <t>INFORMATICA</t>
+  </si>
+  <si>
+    <t>CONFINDUSTRIA</t>
+  </si>
+  <si>
+    <t>CORSO PROMESSI SPOSI 25D</t>
+  </si>
+  <si>
+    <t>GIORGIO</t>
+  </si>
+  <si>
+    <t>MISSAGLIA</t>
+  </si>
+  <si>
+    <t>MSSGRG58D105507C</t>
+  </si>
+  <si>
+    <t>10/04/1958</t>
+  </si>
+  <si>
+    <t>00201760139</t>
+  </si>
+  <si>
+    <t>LIMONTA SPA</t>
+  </si>
+  <si>
+    <t>03185</t>
+  </si>
+  <si>
+    <t>TESSILE - CARTOTECNICO - GOMMA</t>
+  </si>
+  <si>
+    <t>VIA C. BATTISTI</t>
+  </si>
+  <si>
+    <t>COSTA MASNAGA</t>
   </si>
 </sst>
 </file>
@@ -237,8 +462,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -263,202 +492,642 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R9" activeCellId="0" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.6632653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.22959183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.4795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.31632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.719387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.5"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="4.76020408163265"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.1173469387755"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.7857142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="19.7448979591837"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8673469387755"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.2142857142857"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.1785714285714"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="24.5510204081633"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.1173469387755"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.2397959183673"/>
-    <col collapsed="false" hidden="false" max="28" min="21" style="0" width="8.72959183673469"/>
-    <col collapsed="false" hidden="false" max="33" min="29" style="0" width="12.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="34" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.6632653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.22959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.5051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.4081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.31632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.984693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.0918367346939"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="34.1071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="4.76020408163265"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.4030612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.1173469387755"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="16.7857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="19.7448979591837"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="22.8673469387755"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.6173469387755"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="28.1785714285714"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="24.5510204081633"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="16.1173469387755"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="19.2397959183673"/>
+    <col collapsed="false" hidden="false" max="28" min="21" style="1" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="33" min="29" style="1" width="12.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="34" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="T3" s="2" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/db aziende/db aziende.xlsx
+++ b/db aziende/db aziende.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="202">
   <si>
     <t>pIva</t>
   </si>
@@ -305,10 +305,10 @@
     <t>0313355418</t>
   </si>
   <si>
-    <t>RIPARAZ MACCHINE PER UFFICIO INFO </t>
-  </si>
-  <si>
-    <t>VIA COMO 3 </t>
+    <t>RIPARAZ MACCHINE PER UFFICIO INFO</t>
+  </si>
+  <si>
+    <t>VIA COMO 3</t>
   </si>
   <si>
     <t>LONGONE AL SEGRINO</t>
@@ -387,6 +387,240 @@
   </si>
   <si>
     <t>COSTA MASNAGA</t>
+  </si>
+  <si>
+    <t>02085500136</t>
+  </si>
+  <si>
+    <t>MDG s.n.c.DI GADDI P. e C.</t>
+  </si>
+  <si>
+    <t>0341710256</t>
+  </si>
+  <si>
+    <t>info@mdgitalia.eu</t>
+  </si>
+  <si>
+    <t>VIA CISERINO 4/E</t>
+  </si>
+  <si>
+    <t>23827</t>
+  </si>
+  <si>
+    <t>LIERNA</t>
+  </si>
+  <si>
+    <t>PATRIZIO</t>
+  </si>
+  <si>
+    <t>GADDI</t>
+  </si>
+  <si>
+    <t>GDDPRZ65C28A745X</t>
+  </si>
+  <si>
+    <t>BELLANO</t>
+  </si>
+  <si>
+    <t>28/03/1965</t>
+  </si>
+  <si>
+    <t>03461320131</t>
+  </si>
+  <si>
+    <t>OFFICINA MECCANICA BM DI BARAGETTI MAURIZIO WALTER</t>
+  </si>
+  <si>
+    <t>03958076</t>
+  </si>
+  <si>
+    <t>gbaragetti@virgilio.it</t>
+  </si>
+  <si>
+    <t>VIA PRIVATA MAGNI 1</t>
+  </si>
+  <si>
+    <t>23875</t>
+  </si>
+  <si>
+    <t>OSNAGO</t>
+  </si>
+  <si>
+    <t>MAURIZIO WALTER</t>
+  </si>
+  <si>
+    <t>BARAGETTI</t>
+  </si>
+  <si>
+    <t>BRGMZW54P28F704F</t>
+  </si>
+  <si>
+    <t>MONZA</t>
+  </si>
+  <si>
+    <t>28/09/1954</t>
+  </si>
+  <si>
+    <t>GIOVANNI</t>
+  </si>
+  <si>
+    <t>00814480133</t>
+  </si>
+  <si>
+    <t>DEFREMM s.p.a.</t>
+  </si>
+  <si>
+    <t>0341251410</t>
+  </si>
+  <si>
+    <t>m.motisi@defremm.it</t>
+  </si>
+  <si>
+    <t>VIA BOITO 6</t>
+  </si>
+  <si>
+    <t>23900</t>
+  </si>
+  <si>
+    <t>ROSA</t>
+  </si>
+  <si>
+    <t>MOLINARI</t>
+  </si>
+  <si>
+    <t>MLNRSO73H64E507W</t>
+  </si>
+  <si>
+    <t>24/06/1973</t>
+  </si>
+  <si>
+    <t>MASSIMO</t>
+  </si>
+  <si>
+    <t>MOTISI</t>
+  </si>
+  <si>
+    <t>00810220137</t>
+  </si>
+  <si>
+    <t>FIOCCHI MUNIZIONI s.p.a.</t>
+  </si>
+  <si>
+    <t>0341473258</t>
+  </si>
+  <si>
+    <t>g.galluccio@fiocchigfl.it</t>
+  </si>
+  <si>
+    <t>PRODUZIONE MUNIZIONI CACCIA, TIRO E DIFESA</t>
+  </si>
+  <si>
+    <t>CONFINDUSTRIA LECCO</t>
+  </si>
+  <si>
+    <t>VIA SANTA BARBARA 4</t>
+  </si>
+  <si>
+    <t>STEFANO</t>
+  </si>
+  <si>
+    <t>FIOCCHI</t>
+  </si>
+  <si>
+    <t>FCCSFN63D24E507E</t>
+  </si>
+  <si>
+    <t>24/04/1963</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>SCOTTONI</t>
+  </si>
+  <si>
+    <t>03329960136</t>
+  </si>
+  <si>
+    <t>SVE.ZIA srl</t>
+  </si>
+  <si>
+    <t>0341577625</t>
+  </si>
+  <si>
+    <t>info@sve-zia.com</t>
+  </si>
+  <si>
+    <t>METALMECCANICO ARTIGIANO</t>
+  </si>
+  <si>
+    <t>UPAL</t>
+  </si>
+  <si>
+    <t>VI.LE V.VENETO 4</t>
+  </si>
+  <si>
+    <t>ELLO</t>
+  </si>
+  <si>
+    <t>MARZIA</t>
+  </si>
+  <si>
+    <t>PANZERI</t>
+  </si>
+  <si>
+    <t>PNZMRZ76P68E507N</t>
+  </si>
+  <si>
+    <t>23/09/1976</t>
+  </si>
+  <si>
+    <t>DANIELE</t>
+  </si>
+  <si>
+    <t>CIVILLINI</t>
+  </si>
+  <si>
+    <t>00912620135</t>
+  </si>
+  <si>
+    <t>SILEA s.p.a</t>
+  </si>
+  <si>
+    <t>0341204441</t>
+  </si>
+  <si>
+    <t>giordano.panzeri@sileaspa.it</t>
+  </si>
+  <si>
+    <t>SMALTIMENTO RIFIUTI</t>
+  </si>
+  <si>
+    <t>VIA L.VASSENA 6</t>
+  </si>
+  <si>
+    <t>23868</t>
+  </si>
+  <si>
+    <t>MAURO</t>
+  </si>
+  <si>
+    <t>COLOMBO</t>
+  </si>
+  <si>
+    <t>CLMMRA56E09A794I</t>
+  </si>
+  <si>
+    <t>BERGAMO</t>
+  </si>
+  <si>
+    <t>09/05/1956</t>
+  </si>
+  <si>
+    <t>GIANCARLO</t>
+  </si>
+  <si>
+    <t>OFFREDI</t>
   </si>
 </sst>
 </file>
@@ -397,7 +631,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -419,6 +653,30 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -437,7 +695,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -461,28 +719,49 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Normal" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -492,10 +771,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AP10"/>
+  <dimension ref="A1:AP16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R9" activeCellId="0" sqref="R9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -504,11 +783,11 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="5.22959183673469"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="50.5051020408163"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.4081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.31632653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="24.9744897959184"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="40.984693877551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="17.0918367346939"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="34.1071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="4.76020408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.35714285714286"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="17.4030612244898"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="24.1173469387755"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.469387755102"/>
@@ -1121,7 +1400,369 @@
       <c r="AO10" s="2"/>
       <c r="AP10" s="2"/>
     </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" s="1" t="n">
+        <v>23827</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>23875</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>23900</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>23900</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>23900</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>23848</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>23848</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" display="info@mdgitalia.eu"/>
+    <hyperlink ref="E12" r:id="rId2" display="gbaragetti@virgilio.it"/>
+    <hyperlink ref="E13" r:id="rId3" display="m.motisi@defremm.it"/>
+    <hyperlink ref="E14" r:id="rId4" display="g.galluccio@fiocchigfl.it"/>
+    <hyperlink ref="E15" r:id="rId5" display="info@sve-zia.com"/>
+    <hyperlink ref="E16" r:id="rId6" display="giordano.panzeri@sileaspa.it"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/db aziende/db aziende.xlsx
+++ b/db aziende/db aziende.xlsx
@@ -38,7 +38,7 @@
     <t>associazione</t>
   </si>
   <si>
-    <t>sedeLegale</t>
+    <t>sedelegale</t>
   </si>
   <si>
     <t>cap</t>
@@ -47,34 +47,34 @@
     <t>citta</t>
   </si>
   <si>
-    <t>indirizzoSedeTirocinio</t>
-  </si>
-  <si>
-    <t>capSedeTirocinio</t>
-  </si>
-  <si>
-    <t>cittaSedeTirocinio</t>
-  </si>
-  <si>
-    <t>nomeRappresLegale</t>
-  </si>
-  <si>
-    <t>cognomeRappresLegale</t>
-  </si>
-  <si>
-    <t>CFRappresLegale</t>
-  </si>
-  <si>
-    <t>comuneNascitaRappresLegale</t>
-  </si>
-  <si>
-    <t>dataNascitaRappresLegale</t>
-  </si>
-  <si>
-    <t>nomeTutorAziend</t>
-  </si>
-  <si>
-    <t>cognomeTutorAziend</t>
+    <t>indirizzosedetirocinio</t>
+  </si>
+  <si>
+    <t>capsedetirocinio</t>
+  </si>
+  <si>
+    <t>cittasedetirocinio</t>
+  </si>
+  <si>
+    <t>nomerappreslegale</t>
+  </si>
+  <si>
+    <t>cognomerappreslegale</t>
+  </si>
+  <si>
+    <t>cfrappresLegale</t>
+  </si>
+  <si>
+    <t>comunenascitarappreslegale</t>
+  </si>
+  <si>
+    <t>datanascitarappreslegale</t>
+  </si>
+  <si>
+    <t>nometutoraziend</t>
+  </si>
+  <si>
+    <t>cognometutoraziend</t>
   </si>
   <si>
     <t>00307430132</t>
@@ -631,7 +631,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -665,17 +665,6 @@
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -719,17 +708,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -745,11 +734,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -761,7 +754,7 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Normal" xfId="20" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Normal" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -773,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:AP16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -865,17 +858,41 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
+      <c r="AB1" s="0"/>
+      <c r="AC1" s="0"/>
+      <c r="AD1" s="0"/>
+      <c r="AE1" s="0"/>
+      <c r="AF1" s="0"/>
+      <c r="AG1" s="0"/>
+      <c r="AH1" s="0"/>
+      <c r="AI1" s="0"/>
+      <c r="AJ1" s="0"/>
+      <c r="AK1" s="0"/>
+      <c r="AL1" s="0"/>
+      <c r="AM1" s="0"/>
+      <c r="AN1" s="0"/>
+      <c r="AO1" s="0"/>
+      <c r="AP1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B2" s="0"/>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E2" s="0"/>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
@@ -885,12 +902,14 @@
       <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="I2" s="0"/>
       <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="L2" s="0"/>
       <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
@@ -915,26 +934,54 @@
       <c r="T2" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="B3" s="0"/>
       <c r="C3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
       <c r="H3" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="I3" s="0"/>
       <c r="J3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="L3" s="0"/>
       <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
@@ -959,17 +1006,41 @@
       <c r="T3" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="U3" s="0"/>
+      <c r="V3" s="0"/>
+      <c r="W3" s="0"/>
+      <c r="X3" s="0"/>
+      <c r="Y3" s="0"/>
+      <c r="Z3" s="0"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
+      <c r="AE3" s="0"/>
+      <c r="AF3" s="0"/>
+      <c r="AG3" s="0"/>
+      <c r="AH3" s="0"/>
+      <c r="AI3" s="0"/>
+      <c r="AJ3" s="0"/>
+      <c r="AK3" s="0"/>
+      <c r="AL3" s="0"/>
+      <c r="AM3" s="0"/>
+      <c r="AN3" s="0"/>
+      <c r="AO3" s="0"/>
+      <c r="AP3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="B4" s="0"/>
       <c r="C4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E4" s="0"/>
       <c r="F4" s="2" t="s">
         <v>52</v>
       </c>
@@ -979,9 +1050,13 @@
       <c r="H4" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="I4" s="0"/>
       <c r="J4" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
       <c r="N4" s="2" t="s">
         <v>56</v>
       </c>
@@ -1003,17 +1078,41 @@
       <c r="T4" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
+      <c r="AP4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="B5" s="0"/>
       <c r="C5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E5" s="0"/>
       <c r="F5" s="2" t="s">
         <v>64</v>
       </c>
@@ -1023,12 +1122,14 @@
       <c r="H5" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="I5" s="0"/>
       <c r="J5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="L5" s="0"/>
       <c r="M5" s="2" t="s">
         <v>68</v>
       </c>
@@ -1053,6 +1154,28 @@
       <c r="T5" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="U5" s="0"/>
+      <c r="V5" s="0"/>
+      <c r="W5" s="0"/>
+      <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
+      <c r="Z5" s="0"/>
+      <c r="AA5" s="0"/>
+      <c r="AB5" s="0"/>
+      <c r="AC5" s="0"/>
+      <c r="AD5" s="0"/>
+      <c r="AE5" s="0"/>
+      <c r="AF5" s="0"/>
+      <c r="AG5" s="0"/>
+      <c r="AH5" s="0"/>
+      <c r="AI5" s="0"/>
+      <c r="AJ5" s="0"/>
+      <c r="AK5" s="0"/>
+      <c r="AL5" s="0"/>
+      <c r="AM5" s="0"/>
+      <c r="AN5" s="0"/>
+      <c r="AO5" s="0"/>
+      <c r="AP5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
@@ -1404,6 +1527,7 @@
       <c r="A11" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="B11" s="0"/>
       <c r="C11" s="2" t="s">
         <v>125</v>
       </c>
@@ -1431,7 +1555,7 @@
       <c r="K11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="L11" s="1" t="n">
+      <c r="L11" s="5" t="n">
         <v>23827</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -1463,6 +1587,7 @@
       <c r="A12" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="B12" s="0"/>
       <c r="C12" s="2" t="s">
         <v>137</v>
       </c>
@@ -1472,9 +1597,10 @@
       <c r="E12" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="G12" s="0"/>
       <c r="H12" s="2" t="s">
         <v>140</v>
       </c>
@@ -1519,6 +1645,7 @@
       <c r="A13" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="B13" s="0"/>
       <c r="C13" s="2" t="s">
         <v>150</v>
       </c>
@@ -1575,182 +1702,182 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="6" t="n">
         <v>23900</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="L14" s="5" t="n">
+      <c r="L14" s="6" t="n">
         <v>23900</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="5" t="n">
+      <c r="I15" s="6" t="n">
         <v>23848</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="L15" s="5" t="n">
+      <c r="L15" s="6" t="n">
         <v>23848</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="6" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1767,8 +1894,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>